--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owend\OneDrive\Documents\Work\BU\MET CS 633 Software Quality, Testing and Security Management\Term Project\code\please-fix-me-reporter-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BB17C9-DB95-4B68-BA80-8A358DC66C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5927E58-3F59-46C8-824E-1D14FF2D730E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>No.</t>
   </si>
@@ -88,13 +88,37 @@
   </si>
   <si>
     <t>NegativeReportDefect.cy.ts</t>
+  </si>
+  <si>
+    <t>Test Case #A2</t>
+  </si>
+  <si>
+    <t>Objective - The purpose of this test is to reveal defects in the defect comment form.</t>
+  </si>
+  <si>
+    <t>Small comment</t>
+  </si>
+  <si>
+    <t>comment successfully posted</t>
+  </si>
+  <si>
+    <t>SubmitDefectComment.cy.ts</t>
+  </si>
+  <si>
+    <t>NegativeSubmitDefectComment.cy.ts</t>
+  </si>
+  <si>
+    <t>error - name and details are required.</t>
+  </si>
+  <si>
+    <t>error - name, and details are too long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +138,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,9 +172,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -426,104 +456,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="1" t="s">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
